--- a/Carrie/发票记录11.24 多家供应商发票清单.Matt.xlsx
+++ b/Carrie/发票记录11.24 多家供应商发票清单.Matt.xlsx
@@ -15,18 +15,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$22</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>购买方</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +158,83 @@
   </si>
   <si>
     <t>北京雷斯达克产品开发股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海喜酿贸易有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市天瑞优品有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟才烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海爱齿怡企业发展有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11547061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11547062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11547060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06847084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27815730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27815731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24714403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24714402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24714401</t>
+  </si>
+  <si>
+    <t>24714400</t>
+  </si>
+  <si>
+    <t>24714399</t>
+  </si>
+  <si>
+    <t>24714404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22541982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06438910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06438911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58972191</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,8 +428,26 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -372,14 +460,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -671,7 +751,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -731,16 +811,18 @@
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <v>9799</v>
+      </c>
       <c r="D3" s="9">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E22" si="0">ROUND(C3/(1+D3),2)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="29">
-        <v>59176002</v>
+        <f t="shared" ref="E3:E28" si="0">ROUND(C3/(1+D3),2)</f>
+        <v>8671.68</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>41</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>33</v>
@@ -755,11 +837,22 @@
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="8">
+        <v>1272</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="35">
+        <f t="shared" si="0"/>
+        <v>1166.97</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
@@ -770,11 +863,22 @@
       <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="8">
+        <v>10983</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="35">
+        <f t="shared" si="0"/>
+        <v>9719.4699999999993</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
@@ -785,11 +889,19 @@
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>18057</v>
+      </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="35">
+        <v>16009.07</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
@@ -800,11 +912,22 @@
       <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="8">
+        <v>423</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" si="0"/>
+        <v>388.07</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
@@ -815,11 +938,22 @@
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="8">
+        <v>18235</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" si="0"/>
+        <v>16137.17</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
@@ -827,12 +961,25 @@
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8">
+        <v>91000</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="0"/>
+        <v>80530.97</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
@@ -840,12 +987,25 @@
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8">
+        <v>99470</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" si="0"/>
+        <v>88026.55</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
@@ -853,12 +1013,25 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8">
+        <v>106890</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E11" s="35">
+        <f t="shared" si="0"/>
+        <v>94592.92</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
@@ -866,12 +1039,25 @@
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8">
+        <v>103740</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E12" s="35">
+        <f t="shared" si="0"/>
+        <v>91805.31</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
@@ -879,12 +1065,25 @@
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
+        <v>74650</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E13" s="35">
+        <f t="shared" si="0"/>
+        <v>66061.95</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
@@ -892,12 +1091,25 @@
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8095</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E14" s="35">
+        <f t="shared" si="0"/>
+        <v>7163.72</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
@@ -905,12 +1117,25 @@
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14260</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="0"/>
+        <v>12619.47</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
@@ -918,12 +1143,25 @@
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8">
+        <v>17912</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E16" s="35">
+        <f t="shared" si="0"/>
+        <v>16433.03</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
     </row>
@@ -931,154 +1169,190 @@
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8275.2000000000007</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="35">
+        <f t="shared" si="0"/>
+        <v>7323.19</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3129.5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="0"/>
+        <v>2769.47</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="34"/>
       <c r="B19" s="5"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="29"/>
       <c r="G19" s="5"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="29"/>
       <c r="G20" s="5"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="29"/>
       <c r="G21" s="5"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="29"/>
       <c r="G22" s="5"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="29"/>
       <c r="G23" s="5"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="29"/>
       <c r="G24" s="5"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="29"/>
       <c r="G25" s="5"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="29"/>
       <c r="G26" s="5"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="29"/>
       <c r="G27" s="5"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="29"/>
       <c r="G28" s="5"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -1089,7 +1363,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="30"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="5"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -1100,7 +1374,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="30"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="5"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -1111,7 +1385,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="30"/>
+      <c r="F31" s="29"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -1122,7 +1396,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="30"/>
+      <c r="F32" s="29"/>
       <c r="G32" s="5"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -1135,10 +1409,10 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="8">
-        <f t="shared" ref="E23:E33" si="1">ROUND(C33/(1+D33),2)</f>
+        <f t="shared" ref="E33" si="1">ROUND(C33/(1+D33),2)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="5"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
